--- a/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED320A0E-3F30-4BFE-B1D2-682D981C9589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CA93D-FC8E-4EF7-A1D9-087B729344BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="2265" windowWidth="15330" windowHeight="10770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="554">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1956,6 +1956,126 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.8d509770ba318ab4b40e7380323144cac490668dbcf88446975082a91f115b48.941ee466c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:35.575Z</t>
+  </si>
+  <si>
+    <t>6a56d85f0c7ac88c9d9e9fe9701ea702</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.ca725fbf35dc02773d9949c2766c646b13e5084562e38d97eb4e3c666a97a489.624b03d62e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:02:01.299Z</t>
+  </si>
+  <si>
+    <t>6203be05468241a321f60dd6db1a53aa</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:34.642Z</t>
+  </si>
+  <si>
+    <t>84129df7e93949133642c0bb4e81a76e</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:35.157Z</t>
+  </si>
+  <si>
+    <t>eeede587b3aca8cfaa78c394f6896ab8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.7f6025d96570876029dcc079fb1c8616b2d1e9c87b7435cbdba7e7b5a9ccf049.cd6e4351ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:35.953Z</t>
+  </si>
+  <si>
+    <t>705641691ee2fd2f3ccaf268728f12eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.666ac4d507074331c62f07ab5f9060f1ae766fb2b3ec5a6d98143513f4ba119f.b8a4e6441c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:36.479Z</t>
+  </si>
+  <si>
+    <t>d3e2b0a84bf92cbca00b58a0007be26c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.de0980a3edd5756a8b969d0f0dde6f969be3192f0f1c8263ae51b29525d68b6a.a6bd90ef33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:36.969Z</t>
+  </si>
+  <si>
+    <t>82e7665bb31d90efcaea8c54e1d36c13</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.ca2658de5dcbc73c61ade75257d708d8e9514434b8d624e0d47772bad927c5bc.d9cce7974f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:37.519Z</t>
+  </si>
+  <si>
+    <t>0455da824772b237f56f46cd524d1c98</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.ca53ef5f5c39294e4228262ebfd34baa3a1c24d551a48cdbe874d3696670cbbf.7b55671bef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:38.079Z</t>
+  </si>
+  <si>
+    <t>06b19c3947731bde70b718ccdd25a6e9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.f23f38dc2c82df78381546211f19ba85f86f56d1a1fb2e759bdbbe46716f0a9a.a69ff9364a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:38.583Z</t>
+  </si>
+  <si>
+    <t>aba933ce4204d4070506568d03c9aaa0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.3e9002cbed25b562ef7b8c9f55ed7cd55eef6f87510a81212d36c3d443983550.ea6fa62936^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:39.078Z</t>
+  </si>
+  <si>
+    <t>ebec4de45eec664efc329a7dd2ee04cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.df0fbcfffdc5db7e64841faeed53ced932a3410db4c218231321106d4e25d046.066b841a33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:39.592Z</t>
+  </si>
+  <si>
+    <t>08aeccb847184e17247366a79316ce92</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.baff7370bc07d0fd84851eeae910aa795653e753cc2685133500437137044c55.31d06d7428^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:40.125Z</t>
+  </si>
+  <si>
+    <t>dbf8730a159768376df1c8cba2649283</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.ad1658a0066dbef523be827599cde99da9ab2bd1310adc49e19dc77faeaabf40.df728c752a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-08T17:04:40.659Z</t>
+  </si>
+  <si>
+    <t>46cdd4b73951515e8177f4f63c3b73d0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.bab73d7725e6d421814c0ae28196d0aef283732157f7e1a167291b3a9e80a5c1.2a1b63a9b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4057,10 +4177,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4347,7 +4467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4363,11 +4483,21 @@
       <c r="E10" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="F10" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -4384,7 +4514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4400,10 +4530,18 @@
       <c r="E11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="42"/>
+      <c r="F11" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>492</v>
+      </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
@@ -4704,7 +4842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -4720,10 +4858,18 @@
       <c r="E19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="42"/>
+      <c r="F19" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>492</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
@@ -5024,7 +5170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5040,20 +5186,38 @@
       <c r="E27" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="37"/>
+      <c r="F27" s="36">
+        <v>45846</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="M27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>498</v>
+      </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
         <v>64</v>
@@ -5354,7 +5518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5370,20 +5534,44 @@
       <c r="E35" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="38"/>
+      <c r="F35" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="M35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S35" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T35" s="38"/>
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
@@ -5391,7 +5579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5407,20 +5595,44 @@
       <c r="E36" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="38"/>
+      <c r="F36" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
+      <c r="M36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S36" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
@@ -5428,7 +5640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -5444,20 +5656,44 @@
       <c r="E37" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="38"/>
+      <c r="F37" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="M37" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S37" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T37" s="38"/>
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
@@ -5465,7 +5701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -5481,20 +5717,44 @@
       <c r="E38" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="38"/>
+      <c r="F38" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
+      <c r="M38" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S38" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T38" s="38"/>
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
@@ -5502,7 +5762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -5518,20 +5778,44 @@
       <c r="E39" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="38"/>
+      <c r="F39" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="M39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S39" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T39" s="38"/>
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
@@ -5539,7 +5823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -5555,20 +5839,44 @@
       <c r="E40" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="38"/>
+      <c r="F40" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="M40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S40" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T40" s="38"/>
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
@@ -5576,7 +5884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -5592,20 +5900,44 @@
       <c r="E41" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="38"/>
+      <c r="F41" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
+      <c r="M41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S41" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T41" s="38"/>
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
@@ -5613,7 +5945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -5629,20 +5961,44 @@
       <c r="E42" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="38"/>
+      <c r="F42" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
+      <c r="M42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q42" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R42" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S42" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
@@ -9847,7 +10203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -9863,12 +10219,18 @@
       <c r="E146" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="F146" s="37"/>
+      <c r="F146" s="36">
+        <v>45846</v>
+      </c>
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
       <c r="I146" s="42"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
+      <c r="J146" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K146" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="L146" s="38"/>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9884,7 +10246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -9900,12 +10262,18 @@
       <c r="E147" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="F147" s="37"/>
+      <c r="F147" s="36">
+        <v>45846</v>
+      </c>
       <c r="G147" s="37"/>
       <c r="H147" s="37"/>
       <c r="I147" s="42"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
+      <c r="J147" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K147" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="L147" s="38"/>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -10735,7 +11103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -10751,11 +11119,21 @@
       <c r="E170" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="38"/>
+      <c r="F170" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G170" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="H170" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I170" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="J170" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
       <c r="M170" s="38"/>
@@ -11240,7 +11618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -11256,20 +11634,44 @@
       <c r="E183" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="F183" s="35"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
-      <c r="I183" s="35"/>
-      <c r="J183" s="38"/>
+      <c r="F183" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G183" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="H183" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="I183" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="J183" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K183" s="38"/>
       <c r="L183" s="35"/>
-      <c r="M183" s="38"/>
-      <c r="N183" s="38"/>
-      <c r="O183" s="35"/>
-      <c r="P183" s="38"/>
-      <c r="Q183" s="38"/>
-      <c r="R183" s="38"/>
-      <c r="S183" s="35"/>
+      <c r="M183" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N183" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O183" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P183" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q183" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R183" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S183" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T183" s="38"/>
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
@@ -11519,7 +11921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -11535,20 +11937,44 @@
       <c r="E190" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
-      <c r="I190" s="42"/>
-      <c r="J190" s="38"/>
+      <c r="F190" s="36">
+        <v>45846</v>
+      </c>
+      <c r="G190" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="H190" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="I190" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="J190" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K190" s="38"/>
       <c r="L190" s="38"/>
-      <c r="M190" s="38"/>
-      <c r="N190" s="38"/>
-      <c r="O190" s="38"/>
-      <c r="P190" s="38"/>
-      <c r="Q190" s="38"/>
-      <c r="R190" s="38"/>
-      <c r="S190" s="38"/>
+      <c r="M190" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N190" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O190" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P190" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q190" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R190" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S190" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T190" s="38"/>
       <c r="U190" s="39"/>
       <c r="V190" s="40"/>
@@ -15674,6 +16100,7 @@
   <autoFilter ref="A9:W192" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="LAB"/>
         <filter val="RAD"/>
       </filters>
     </filterColumn>
@@ -17961,6 +18388,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18218,42 +18666,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18276,9 +18692,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CA93D-FC8E-4EF7-A1D9-087B729344BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B280DA-039D-4D0D-849C-897F026F3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="554">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4180,7 +4180,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4542,7 +4542,9 @@
       <c r="I11" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -4870,7 +4872,9 @@
       <c r="I19" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
@@ -18388,27 +18392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18666,10 +18649,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18692,20 +18707,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B280DA-039D-4D0D-849C-897F026F3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E8878-56E0-46BF-9258-5A81D3A53FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="554">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4177,10 +4177,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4547,13 +4547,27 @@
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="M11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>495</v>
+      </c>
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
@@ -4877,13 +4891,27 @@
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="M19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>495</v>
+      </c>
       <c r="T19" s="38"/>
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>

--- a/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E8878-56E0-46BF-9258-5A81D3A53FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075A67F-75F0-4EA1-973B-A5F5665EE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="597">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2076,6 +2076,135 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.bab73d7725e6d421814c0ae28196d0aef283732157f7e1a167291b3a9e80a5c1.2a1b63a9b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:21.835Z</t>
+  </si>
+  <si>
+    <t>2d2dffe405bcb3b091505d845411353d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.746783d168efd9a6eb749e151f4e83f9929af0e1dc5206ac69025ca219db1f3e.3f35aeb34a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:28.420Z</t>
+  </si>
+  <si>
+    <t>916992a8b12fc1f30f8fcfd5405eef58</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9801f71b22f5eff17743fb77c36e4dbff1887ea6a5bf6eec2db8f19d4daf17c4.faeea9966f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:28.848Z</t>
+  </si>
+  <si>
+    <t>8714e7e598cf70987e6d44450445985f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.baedb91af6b128780c3504059daa3509259465f6c7702464588902d9f55877b1.43c005b01b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:29.615Z</t>
+  </si>
+  <si>
+    <t>8e31b9fe958b651319ae2bc484b71a1c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9e3833706eaca93d58d14ad1c7e9f2b735f21a8b980a651d03060180a9bbe375.7806245e54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:30.304Z</t>
+  </si>
+  <si>
+    <t>b5e4d32b2b87b2837a8603bf18e5d410</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.a322d918461a9fc8280b9f594d09d8f57e912b929c677274a20095f2479405f9.11e8152bb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:30.893Z</t>
+  </si>
+  <si>
+    <t>5edc5ee0481632b67e3fbe57af78088b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9ce4f4e106234e8f57b58dc136c87bab4338373da1364b813ddb4681b4dad8d3.cad18b8bec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:31.605Z</t>
+  </si>
+  <si>
+    <t>297feda758ff99b82de863cdd6fb6073</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9f2ead270aa63a349c92260906e5bcefe56537656d5778c2cc4bc3c1973456d4.5976037b1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:32.189Z</t>
+  </si>
+  <si>
+    <t>b9fafff57736218fd8ae4047e4c10297</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.aec8120d3931ada40f852f2320a9ef45b7984f310ba59ba8b1f27c141d532945.640c244eb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:33.052Z</t>
+  </si>
+  <si>
+    <t>87a1b69107d2f88b15811c539d2706aa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.b71d06aa80c1e6015362a43982021127c1f1a07b1761f122093ed0458b95b91d.633e552d9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:33.894Z</t>
+  </si>
+  <si>
+    <t>54cb3c8242f92e906fe88227e93fe269</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.5b16dba7bce5ce6db27ba2357e9b406edbb795dac7552298ee98c26a68109783.853de54a5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:34.524Z</t>
+  </si>
+  <si>
+    <t>bac878038e253268eed0c945821c9563</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.a05bc3459300c7a20f5eacd145ee8aba1d0916098d4dd462da2e53630c681274.e46259fc07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:35.074Z</t>
+  </si>
+  <si>
+    <t>d0834728aaddabebf1e4f97b09651f95</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.eb9223283a77e47893292cc6fd7594db340213337646f3c6f80737115f0ecc9f.00eceeb641^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:35.630Z</t>
+  </si>
+  <si>
+    <t>e038c2861e3faa2e86101bbb43e6b0d7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.c944fd1f189b633d673df488f0692a9c532f2fe57a7f3475f978d59f29cf9382.e2466303db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:36.227Z</t>
+  </si>
+  <si>
+    <t>0539dfd9cc38c3326d28eb0f2b3d8410</t>
+  </si>
+  <si>
+    <t>2025-07-16T10:30:36.783Z</t>
+  </si>
+  <si>
+    <t>2223453be5ba16a7849d0a02e219009d</t>
   </si>
 </sst>
 </file>
@@ -4177,10 +4306,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4195,7 +4324,7 @@
     <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" customWidth="1"/>
+    <col min="19" max="19" width="102.7109375" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
     <col min="22" max="23" width="31.85546875" customWidth="1"/>
@@ -4575,7 +4704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4591,20 +4720,44 @@
       <c r="E12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="38"/>
+      <c r="F12" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="M12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>495</v>
+      </c>
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
@@ -4919,7 +5072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -4935,20 +5088,44 @@
       <c r="E20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="38"/>
+      <c r="F20" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="M20" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>495</v>
+      </c>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
@@ -5044,8 +5221,8 @@
       <c r="R22" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="S22" s="38" t="s">
-        <v>495</v>
+      <c r="S22" s="38">
+        <v>93</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -5259,7 +5436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5275,20 +5452,38 @@
       <c r="E28" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="37"/>
+      <c r="F28" s="37">
+        <v>45854</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="38"/>
+      <c r="J28" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="M28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>498</v>
+      </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
         <v>64</v>
@@ -6038,7 +6233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6054,20 +6249,44 @@
       <c r="E43" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="38"/>
+      <c r="F43" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="M43" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q43" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R43" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S43" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
@@ -6075,7 +6294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6091,20 +6310,44 @@
       <c r="E44" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="38"/>
+      <c r="F44" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="I44" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="M44" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R44" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S44" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
@@ -6112,7 +6355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6128,20 +6371,44 @@
       <c r="E45" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="38"/>
+      <c r="F45" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
+      <c r="M45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R45" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S45" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T45" s="38"/>
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
@@ -6149,7 +6416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6165,20 +6432,44 @@
       <c r="E46" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="38"/>
+      <c r="F46" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
+      <c r="M46" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R46" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S46" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T46" s="38"/>
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
@@ -6186,7 +6477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6202,20 +6493,44 @@
       <c r="E47" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="38"/>
+      <c r="F47" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
+      <c r="M47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R47" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S47" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T47" s="38"/>
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
@@ -6223,7 +6538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6239,20 +6554,44 @@
       <c r="E48" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="38"/>
+      <c r="F48" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
+      <c r="M48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q48" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R48" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S48" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
@@ -6260,7 +6599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6276,20 +6615,44 @@
       <c r="E49" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="38"/>
+      <c r="F49" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
+      <c r="M49" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q49" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R49" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S49" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
@@ -6297,7 +6660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6313,20 +6676,44 @@
       <c r="E50" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="38"/>
+      <c r="F50" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
+      <c r="M50" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q50" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R50" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S50" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T50" s="38"/>
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
@@ -6334,7 +6721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6350,20 +6737,44 @@
       <c r="E51" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="38"/>
+      <c r="F51" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
+      <c r="M51" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q51" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R51" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S51" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T51" s="38"/>
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
@@ -6371,7 +6782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6387,20 +6798,44 @@
       <c r="E52" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="38"/>
+      <c r="F52" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
+      <c r="M52" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P52" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q52" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R52" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S52" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T52" s="38"/>
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
@@ -11061,7 +11496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A168" s="35">
         <v>450</v>
       </c>
@@ -11077,11 +11512,21 @@
       <c r="E168" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="38"/>
+      <c r="F168" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G168" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="H168" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="I168" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="J168" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K168" s="38"/>
       <c r="L168" s="38"/>
       <c r="M168" s="38"/>
@@ -11098,7 +11543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
       <c r="A169" s="35">
         <v>451</v>
       </c>
@@ -11114,11 +11559,21 @@
       <c r="E169" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="38"/>
+      <c r="F169" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G169" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="I169" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="J169" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
       <c r="M169" s="38"/>
@@ -11711,7 +12166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="A184" s="35">
         <v>467</v>
       </c>
@@ -11727,20 +12182,44 @@
       <c r="E184" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
+      <c r="F184" s="37">
+        <v>45854</v>
+      </c>
+      <c r="G184" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="H184" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="I184" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="J184" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K184" s="38"/>
       <c r="L184" s="35"/>
-      <c r="M184" s="38"/>
-      <c r="N184" s="38"/>
-      <c r="O184" s="35"/>
-      <c r="P184" s="38"/>
-      <c r="Q184" s="38"/>
-      <c r="R184" s="38"/>
-      <c r="S184" s="35"/>
+      <c r="M184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O184" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="P184" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q184" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R184" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S184" s="45" t="s">
+        <v>502</v>
+      </c>
       <c r="T184" s="38"/>
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
@@ -16133,6 +16612,7 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
+        <filter val="LDO"/>
         <filter val="RAD"/>
       </filters>
     </filterColumn>
@@ -16157,7 +16637,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N192 J10:J192 P10:R192</xm:sqref>
+          <xm:sqref>J10:J192 M10:N192 P10:R192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>

--- a/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#CASADICURAMARIAROSARIAXX/EFRA SRL/KOS/2.6.0/accreditamento-checklist_V8.2.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075A67F-75F0-4EA1-973B-A5F5665EE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F035812-D4ED-435C-A498-906E2A0491E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4306,10 +4306,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="O193" sqref="O193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4596,7 +4596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="35">
         <v>29</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="35">
         <v>31</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="35">
         <v>39</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="35">
         <v>44</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="35">
         <v>45</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="30" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="35">
         <v>47</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A35" s="35">
         <v>53</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="35">
         <v>55</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="35">
         <v>56</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="35">
         <v>57</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A39" s="35">
         <v>59</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>64</v>
       </c>
       <c r="O39" s="45" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P39" s="38" t="s">
         <v>64</v>
@@ -6050,7 +6050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="35">
         <v>60</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>64</v>
       </c>
       <c r="O40" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P40" s="38" t="s">
         <v>64</v>
@@ -6111,7 +6111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="35">
         <v>61</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="35">
         <v>62</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A43" s="35">
         <v>64</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A44" s="35">
         <v>66</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="35">
         <v>67</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="35">
         <v>68</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="35">
         <v>69</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="35">
         <v>70</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A49" s="35">
         <v>71</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="35">
         <v>72</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="35">
         <v>73</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="35">
         <v>74</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A53" s="35">
         <v>76</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="54" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="35">
         <v>78</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="55" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="35">
         <v>79</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="56" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A56" s="35">
         <v>80</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="57" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A57" s="35">
         <v>81</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="58" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A58" s="35">
         <v>83</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="59" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A59" s="35">
         <v>84</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="60" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="35">
         <v>85</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="61" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A61" s="35">
         <v>86</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="62" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="35">
         <v>87</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="63" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A63" s="35">
         <v>88</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="64" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A64" s="35">
         <v>89</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="65" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A65" s="35">
         <v>90</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="35">
         <v>91</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="67" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="35">
         <v>92</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="68" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="35">
         <v>93</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A146" s="35">
         <v>191</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A147" s="35">
         <v>376</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A168" s="35">
         <v>450</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="169" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A169" s="35">
         <v>451</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1">
+    <row r="170" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="35">
         <v>452</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A179" s="35">
         <v>462</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>64</v>
       </c>
       <c r="O179" s="45" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P179" s="38" t="s">
         <v>64</v>
@@ -12105,7 +12105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A183" s="35">
         <v>466</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A184" s="35">
         <v>467</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A188" s="35">
         <v>471</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A189" s="35">
         <v>472</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A190" s="35">
         <v>473</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>64</v>
       </c>
       <c r="O190" s="45" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P190" s="38" t="s">
         <v>64</v>
@@ -12533,7 +12533,7 @@
         <v>64</v>
       </c>
       <c r="O191" s="45" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P191" s="38" t="s">
         <v>64</v>
@@ -16609,6 +16609,11 @@
     <row r="752" spans="23:23" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A9:W192" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="474"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
